--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,67 +979,67 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>David Robinson</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1993-94</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.8</v>
+        <v>32.2</v>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>56.4</v>
       </c>
       <c r="E17" t="n">
-        <v>57.7</v>
+        <v>64.5</v>
       </c>
       <c r="F17" t="n">
-        <v>105.1</v>
+        <v>103.5</v>
       </c>
       <c r="G17" t="n">
-        <v>109.3</v>
+        <v>110.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dominique Wilkins</t>
+          <t>David Robinson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1985-86</t>
+          <t>1993-94</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D18" t="n">
-        <v>47.2</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>53.6</v>
+        <v>57.7</v>
       </c>
       <c r="F18" t="n">
-        <v>95.59999999999999</v>
+        <v>105.1</v>
       </c>
       <c r="G18" t="n">
-        <v>99.09999999999999</v>
+        <v>109.3</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="19">
@@ -1050,29 +1050,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>1985-86</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="D19" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="E19" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="F19" t="n">
-        <v>97</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20">
@@ -1083,95 +1083,95 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>1987-88</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29.9</v>
+        <v>30.7</v>
       </c>
       <c r="D20" t="n">
-        <v>50.6</v>
+        <v>47.4</v>
       </c>
       <c r="E20" t="n">
-        <v>57</v>
+        <v>53.4</v>
       </c>
       <c r="F20" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G20" t="n">
-        <v>106.4</v>
+        <v>99.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dwyane Wade</t>
+          <t>Dominique Wilkins</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="D21" t="n">
-        <v>51.6</v>
+        <v>50.6</v>
       </c>
       <c r="E21" t="n">
-        <v>57.4</v>
+        <v>57</v>
       </c>
       <c r="F21" t="n">
-        <v>103.3</v>
+        <v>103</v>
       </c>
       <c r="G21" t="n">
-        <v>105.5</v>
+        <v>106.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Elgin Baylor</t>
+          <t>Dwyane Wade</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1959-60</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="D22" t="n">
-        <v>42.4</v>
+        <v>51.6</v>
       </c>
       <c r="E22" t="n">
-        <v>48.9</v>
+        <v>57.4</v>
       </c>
       <c r="F22" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="G22" t="n">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1182,29 +1182,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1960-61</t>
+          <t>1959-60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.8</v>
+        <v>29.6</v>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="E23" t="n">
-        <v>49.8</v>
+        <v>48.9</v>
       </c>
       <c r="F23" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="G23" t="n">
-        <v>106.3</v>
+        <v>105.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="24">
@@ -1215,62 +1215,62 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1962-63</t>
+          <t>1960-61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>34.8</v>
       </c>
       <c r="D24" t="n">
-        <v>45.3</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
-        <v>51.9</v>
+        <v>49.8</v>
       </c>
       <c r="F24" t="n">
-        <v>102.7</v>
+        <v>103.6</v>
       </c>
       <c r="G24" t="n">
-        <v>105.2</v>
+        <v>106.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>George Gervin</t>
+          <t>Elgin Baylor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1978-79</t>
+          <t>1962-63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29.6</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>54.1</v>
+        <v>45.3</v>
       </c>
       <c r="E25" t="n">
-        <v>59.1</v>
+        <v>51.9</v>
       </c>
       <c r="F25" t="n">
-        <v>111.6</v>
+        <v>102.7</v>
       </c>
       <c r="G25" t="n">
-        <v>111.6</v>
+        <v>105.2</v>
       </c>
       <c r="H25" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="I25" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -1281,29 +1281,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>1978-79</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33.1</v>
+        <v>29.6</v>
       </c>
       <c r="D26" t="n">
-        <v>53.6</v>
+        <v>54.1</v>
       </c>
       <c r="E26" t="n">
-        <v>58.7</v>
+        <v>59.1</v>
       </c>
       <c r="F26" t="n">
-        <v>110.3</v>
+        <v>111.6</v>
       </c>
       <c r="G26" t="n">
-        <v>110.6</v>
+        <v>111.6</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="27">
@@ -1314,62 +1314,62 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>1979-80</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
       </c>
       <c r="D27" t="n">
-        <v>50.2</v>
+        <v>53.6</v>
       </c>
       <c r="E27" t="n">
-        <v>56.2</v>
+        <v>58.7</v>
       </c>
       <c r="F27" t="n">
-        <v>101.5</v>
+        <v>110.3</v>
       </c>
       <c r="G27" t="n">
-        <v>104.3</v>
+        <v>110.6</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>George Gervin</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>1981-82</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29.5</v>
+        <v>32.3</v>
       </c>
       <c r="D28" t="n">
-        <v>58.9</v>
+        <v>50.2</v>
       </c>
       <c r="E28" t="n">
-        <v>61.3</v>
+        <v>56.2</v>
       </c>
       <c r="F28" t="n">
-        <v>111.4</v>
+        <v>101.5</v>
       </c>
       <c r="G28" t="n">
-        <v>108.5</v>
+        <v>104.3</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="29">
@@ -1380,29 +1380,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="D29" t="n">
-        <v>58.2</v>
+        <v>58.9</v>
       </c>
       <c r="E29" t="n">
-        <v>63.3</v>
+        <v>61.3</v>
       </c>
       <c r="F29" t="n">
-        <v>109.4</v>
+        <v>111.4</v>
       </c>
       <c r="G29" t="n">
-        <v>111.8</v>
+        <v>108.5</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="30">
@@ -1413,29 +1413,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="D30" t="n">
-        <v>57.2</v>
+        <v>58.2</v>
       </c>
       <c r="E30" t="n">
-        <v>60.5</v>
+        <v>63.3</v>
       </c>
       <c r="F30" t="n">
-        <v>104.9</v>
+        <v>109.4</v>
       </c>
       <c r="G30" t="n">
-        <v>104.2</v>
+        <v>111.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="31">
@@ -1446,29 +1446,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.4</v>
+        <v>31.1</v>
       </c>
       <c r="D31" t="n">
-        <v>62.4</v>
+        <v>57.2</v>
       </c>
       <c r="E31" t="n">
-        <v>64.90000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="F31" t="n">
-        <v>114</v>
+        <v>104.9</v>
       </c>
       <c r="G31" t="n">
-        <v>111.8</v>
+        <v>104.2</v>
       </c>
       <c r="H31" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32">
@@ -1479,95 +1479,95 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-25</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>30.4</v>
       </c>
       <c r="D32" t="n">
-        <v>60.8</v>
+        <v>62.4</v>
       </c>
       <c r="E32" t="n">
-        <v>62.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5</v>
+        <v>111.8</v>
       </c>
       <c r="H32" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jack Twyman</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1959-60</t>
+          <t>2024-25</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="D33" t="n">
-        <v>42.2</v>
+        <v>60.7</v>
       </c>
       <c r="E33" t="n">
-        <v>48.7</v>
+        <v>62.5</v>
       </c>
       <c r="F33" t="n">
-        <v>102.9</v>
+        <v>111.7</v>
       </c>
       <c r="G33" t="n">
-        <v>105.3</v>
+        <v>108.4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jack Twyman</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>1959-60</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="D34" t="n">
-        <v>54.1</v>
+        <v>42.2</v>
       </c>
       <c r="E34" t="n">
-        <v>61.9</v>
+        <v>48.7</v>
       </c>
       <c r="F34" t="n">
-        <v>103.8</v>
+        <v>102.9</v>
       </c>
       <c r="G34" t="n">
-        <v>111.4</v>
+        <v>105.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I34" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="35">
@@ -1578,29 +1578,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>36.1</v>
+        <v>30.4</v>
       </c>
       <c r="D35" t="n">
         <v>54.1</v>
       </c>
       <c r="E35" t="n">
-        <v>61.6</v>
+        <v>61.9</v>
       </c>
       <c r="F35" t="n">
-        <v>103.2</v>
+        <v>103.8</v>
       </c>
       <c r="G35" t="n">
-        <v>110</v>
+        <v>111.4</v>
       </c>
       <c r="H35" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="36">
@@ -1611,128 +1611,128 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34.3</v>
+        <v>36.1</v>
       </c>
       <c r="D36" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="E36" t="n">
-        <v>62.6</v>
+        <v>61.6</v>
       </c>
       <c r="F36" t="n">
-        <v>102.6</v>
+        <v>103.2</v>
       </c>
       <c r="G36" t="n">
-        <v>110.7</v>
+        <v>110</v>
       </c>
       <c r="H36" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="I36" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30.1</v>
+        <v>34.3</v>
       </c>
       <c r="D37" t="n">
         <v>54.3</v>
       </c>
       <c r="E37" t="n">
-        <v>60.7</v>
+        <v>62.6</v>
       </c>
       <c r="F37" t="n">
-        <v>99.7</v>
+        <v>102.6</v>
       </c>
       <c r="G37" t="n">
-        <v>104.5</v>
+        <v>110.7</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.2</v>
+        <v>1.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jerry Stackhouse</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2000-01</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="D38" t="n">
-        <v>44.5</v>
+        <v>54.3</v>
       </c>
       <c r="E38" t="n">
-        <v>52.1</v>
+        <v>60.7</v>
       </c>
       <c r="F38" t="n">
-        <v>94</v>
+        <v>99.7</v>
       </c>
       <c r="G38" t="n">
-        <v>100.6</v>
+        <v>104.5</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.8</v>
+        <v>-0.2</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jerry West</t>
+          <t>Jerry Stackhouse</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1961-62</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="D39" t="n">
         <v>44.5</v>
       </c>
       <c r="E39" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="F39" t="n">
-        <v>104.5</v>
+        <v>94</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5</v>
+        <v>100.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
@@ -1743,29 +1743,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1964-65</t>
+          <t>1961-62</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="D40" t="n">
-        <v>49.7</v>
+        <v>44.5</v>
       </c>
       <c r="E40" t="n">
-        <v>57.2</v>
+        <v>52.4</v>
       </c>
       <c r="F40" t="n">
-        <v>116.6</v>
+        <v>104.5</v>
       </c>
       <c r="G40" t="n">
-        <v>119.5</v>
+        <v>109.5</v>
       </c>
       <c r="H40" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="I40" t="n">
-        <v>9.300000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41">
@@ -1776,29 +1776,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1965-66</t>
+          <t>1964-65</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>47.3</v>
+        <v>49.7</v>
       </c>
       <c r="E41" t="n">
-        <v>57.3</v>
+        <v>57.2</v>
       </c>
       <c r="F41" t="n">
-        <v>109.1</v>
+        <v>116.6</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6</v>
+        <v>119.5</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="I41" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1809,62 +1809,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1969-70</t>
+          <t>1965-66</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="D42" t="n">
-        <v>49.7</v>
+        <v>47.3</v>
       </c>
       <c r="E42" t="n">
-        <v>57.2</v>
+        <v>57.3</v>
       </c>
       <c r="F42" t="n">
-        <v>108</v>
+        <v>109.1</v>
       </c>
       <c r="G42" t="n">
-        <v>111.9</v>
+        <v>117.6</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Jerry West</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>1969-70</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30.6</v>
+        <v>31.2</v>
       </c>
       <c r="D43" t="n">
-        <v>53.4</v>
+        <v>49.7</v>
       </c>
       <c r="E43" t="n">
-        <v>61.6</v>
+        <v>57.2</v>
       </c>
       <c r="F43" t="n">
-        <v>100.4</v>
+        <v>108</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8</v>
+        <v>111.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="44">
@@ -1875,62 +1875,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>33.1</v>
+        <v>30.6</v>
       </c>
       <c r="D44" t="n">
-        <v>57.3</v>
+        <v>53.4</v>
       </c>
       <c r="E44" t="n">
-        <v>65.5</v>
+        <v>61.6</v>
       </c>
       <c r="F44" t="n">
-        <v>105.1</v>
+        <v>100.4</v>
       </c>
       <c r="G44" t="n">
-        <v>112.7</v>
+        <v>108.8</v>
       </c>
       <c r="H44" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="I44" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kareem Abdul-Jabbar</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1970-71</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>31.7</v>
+        <v>33.1</v>
       </c>
       <c r="D45" t="n">
-        <v>57.7</v>
+        <v>57.3</v>
       </c>
       <c r="E45" t="n">
-        <v>60.6</v>
+        <v>65.5</v>
       </c>
       <c r="F45" t="n">
-        <v>128.5</v>
+        <v>105.1</v>
       </c>
       <c r="G45" t="n">
-        <v>121.2</v>
+        <v>112.7</v>
       </c>
       <c r="H45" t="n">
-        <v>12.8</v>
+        <v>2.8</v>
       </c>
       <c r="I45" t="n">
-        <v>10.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="46">
@@ -1941,29 +1941,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1971-72</t>
+          <t>1970-71</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34.8</v>
+        <v>31.7</v>
       </c>
       <c r="D46" t="n">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="E46" t="n">
-        <v>60.3</v>
+        <v>60.6</v>
       </c>
       <c r="F46" t="n">
-        <v>126.2</v>
+        <v>128.5</v>
       </c>
       <c r="G46" t="n">
-        <v>119.6</v>
+        <v>121.2</v>
       </c>
       <c r="H46" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="I46" t="n">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="47">
@@ -1974,29 +1974,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1972-73</t>
+          <t>1971-72</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30.2</v>
+        <v>34.8</v>
       </c>
       <c r="D47" t="n">
-        <v>55.4</v>
+        <v>57.4</v>
       </c>
       <c r="E47" t="n">
-        <v>58</v>
+        <v>60.3</v>
       </c>
       <c r="F47" t="n">
-        <v>121.5</v>
+        <v>126.2</v>
       </c>
       <c r="G47" t="n">
-        <v>116.6</v>
+        <v>119.6</v>
       </c>
       <c r="H47" t="n">
-        <v>9.800000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="I47" t="n">
-        <v>8.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="48">
@@ -2007,95 +2007,95 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1974-75</t>
+          <t>1972-73</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D48" t="n">
-        <v>51.3</v>
+        <v>55.4</v>
       </c>
       <c r="E48" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F48" t="n">
-        <v>112.2</v>
+        <v>121.5</v>
       </c>
       <c r="G48" t="n">
-        <v>109.6</v>
+        <v>116.6</v>
       </c>
       <c r="H48" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Karl Malone</t>
+          <t>Kareem Abdul-Jabbar</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>1974-75</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>56.7</v>
+        <v>51.3</v>
       </c>
       <c r="E49" t="n">
-        <v>62.6</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>115.9</v>
+        <v>112.2</v>
       </c>
       <c r="G49" t="n">
-        <v>116.6</v>
+        <v>109.6</v>
       </c>
       <c r="H49" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="I49" t="n">
-        <v>8.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Karl Malone</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>1989-90</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>51.4</v>
+        <v>56.7</v>
       </c>
       <c r="E50" t="n">
-        <v>60.7</v>
+        <v>62.6</v>
       </c>
       <c r="F50" t="n">
-        <v>102.7</v>
+        <v>115.9</v>
       </c>
       <c r="G50" t="n">
-        <v>111.7</v>
+        <v>116.6</v>
       </c>
       <c r="H50" t="n">
-        <v>1.3</v>
+        <v>7.8</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="51">
@@ -2106,62 +2106,62 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2013-14</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>30.1</v>
       </c>
       <c r="D51" t="n">
-        <v>56</v>
+        <v>51.4</v>
       </c>
       <c r="E51" t="n">
-        <v>63.5</v>
+        <v>60.7</v>
       </c>
       <c r="F51" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="G51" t="n">
         <v>111.7</v>
       </c>
-      <c r="G51" t="n">
-        <v>117.3</v>
-      </c>
       <c r="H51" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="I51" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kobe Bryant</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>48.3</v>
+        <v>56</v>
       </c>
       <c r="E52" t="n">
-        <v>55</v>
+        <v>63.5</v>
       </c>
       <c r="F52" t="n">
-        <v>102</v>
+        <v>111.7</v>
       </c>
       <c r="G52" t="n">
-        <v>106</v>
+        <v>117.3</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="53">
@@ -2172,29 +2172,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>35.4</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>49.1</v>
+        <v>48.3</v>
       </c>
       <c r="E53" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="F53" t="n">
-        <v>100.3</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
-        <v>104.3</v>
+        <v>106</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="I53" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="54">
@@ -2205,95 +2205,95 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31.6</v>
+        <v>35.4</v>
       </c>
       <c r="D54" t="n">
-        <v>50.2</v>
+        <v>49.1</v>
       </c>
       <c r="E54" t="n">
-        <v>58</v>
+        <v>55.9</v>
       </c>
       <c r="F54" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="G54" t="n">
-        <v>107.2</v>
+        <v>104.3</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I54" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Larry Bird</t>
+          <t>Kobe Bryant</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29.9</v>
+        <v>31.6</v>
       </c>
       <c r="D55" t="n">
-        <v>55.6</v>
+        <v>50.2</v>
       </c>
       <c r="E55" t="n">
-        <v>60.8</v>
+        <v>58</v>
       </c>
       <c r="F55" t="n">
-        <v>113.7</v>
+        <v>101.2</v>
       </c>
       <c r="G55" t="n">
-        <v>113</v>
+        <v>107.2</v>
       </c>
       <c r="H55" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Larry Bird</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>1987-88</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31.4</v>
+        <v>29.9</v>
       </c>
       <c r="D56" t="n">
-        <v>51.5</v>
+        <v>55.6</v>
       </c>
       <c r="E56" t="n">
-        <v>56.8</v>
+        <v>60.8</v>
       </c>
       <c r="F56" t="n">
-        <v>105.1</v>
+        <v>113.7</v>
       </c>
       <c r="G56" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H56" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2304,29 +2304,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>31.4</v>
       </c>
       <c r="D57" t="n">
-        <v>51.8</v>
+        <v>51.5</v>
       </c>
       <c r="E57" t="n">
         <v>56.8</v>
       </c>
       <c r="F57" t="n">
-        <v>104.2</v>
+        <v>105.1</v>
       </c>
       <c r="G57" t="n">
-        <v>105.2</v>
+        <v>106</v>
       </c>
       <c r="H57" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I57" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="58">
@@ -2337,62 +2337,62 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>54.5</v>
+        <v>51.8</v>
       </c>
       <c r="E58" t="n">
-        <v>60.4</v>
+        <v>56.8</v>
       </c>
       <c r="F58" t="n">
-        <v>108.7</v>
+        <v>104.2</v>
       </c>
       <c r="G58" t="n">
-        <v>111.3</v>
+        <v>105.2</v>
       </c>
       <c r="H58" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="I58" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32.4</v>
+        <v>29.7</v>
       </c>
       <c r="D59" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="E59" t="n">
-        <v>60.9</v>
+        <v>60.4</v>
       </c>
       <c r="F59" t="n">
-        <v>102.8</v>
+        <v>108.7</v>
       </c>
       <c r="G59" t="n">
-        <v>104.9</v>
+        <v>111.3</v>
       </c>
       <c r="H59" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="60">
@@ -2403,95 +2403,95 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>33.9</v>
+        <v>32.4</v>
       </c>
       <c r="D60" t="n">
-        <v>57.3</v>
+        <v>56</v>
       </c>
       <c r="E60" t="n">
-        <v>61.7</v>
+        <v>60.9</v>
       </c>
       <c r="F60" t="n">
-        <v>104.7</v>
+        <v>102.8</v>
       </c>
       <c r="G60" t="n">
-        <v>106.4</v>
+        <v>104.9</v>
       </c>
       <c r="H60" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="I60" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mark Aguirre</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29.5</v>
+        <v>33.9</v>
       </c>
       <c r="D61" t="n">
-        <v>52.8</v>
+        <v>57.3</v>
       </c>
       <c r="E61" t="n">
-        <v>57.2</v>
+        <v>61.7</v>
       </c>
       <c r="F61" t="n">
-        <v>106.7</v>
+        <v>104.7</v>
       </c>
       <c r="G61" t="n">
-        <v>105.3</v>
+        <v>106.4</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="I61" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Mark Aguirre</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>1983-84</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>37.1</v>
+        <v>29.5</v>
       </c>
       <c r="D62" t="n">
-        <v>48.4</v>
+        <v>52.8</v>
       </c>
       <c r="E62" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="F62" t="n">
-        <v>99.3</v>
+        <v>106.7</v>
       </c>
       <c r="G62" t="n">
-        <v>104.4</v>
+        <v>105.3</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.4</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="63">
@@ -2502,29 +2502,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>1986-87</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>37.1</v>
       </c>
       <c r="D63" t="n">
-        <v>53.7</v>
+        <v>48.4</v>
       </c>
       <c r="E63" t="n">
-        <v>60.3</v>
+        <v>56.2</v>
       </c>
       <c r="F63" t="n">
-        <v>109.8</v>
+        <v>99.3</v>
       </c>
       <c r="G63" t="n">
-        <v>112.2</v>
+        <v>104.4</v>
       </c>
       <c r="H63" t="n">
-        <v>4.8</v>
+        <v>-0.4</v>
       </c>
       <c r="I63" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="64">
@@ -2535,29 +2535,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>1987-88</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>54.6</v>
+        <v>53.7</v>
       </c>
       <c r="E64" t="n">
-        <v>61.4</v>
+        <v>60.3</v>
       </c>
       <c r="F64" t="n">
-        <v>111.6</v>
+        <v>109.8</v>
       </c>
       <c r="G64" t="n">
-        <v>114.4</v>
+        <v>112.2</v>
       </c>
       <c r="H64" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I64" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="65">
@@ -2568,29 +2568,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>1988-89</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>33.6</v>
+        <v>32.5</v>
       </c>
       <c r="D65" t="n">
-        <v>55</v>
+        <v>54.6</v>
       </c>
       <c r="E65" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="F65" t="n">
-        <v>112.5</v>
+        <v>111.6</v>
       </c>
       <c r="G65" t="n">
-        <v>112.8</v>
+        <v>114.4</v>
       </c>
       <c r="H65" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="I65" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="66">
@@ -2601,29 +2601,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1990-91</t>
+          <t>1989-90</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>31.5</v>
+        <v>33.6</v>
       </c>
       <c r="D66" t="n">
-        <v>54.7</v>
+        <v>55</v>
       </c>
       <c r="E66" t="n">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="F66" t="n">
-        <v>112.3</v>
+        <v>112.5</v>
       </c>
       <c r="G66" t="n">
-        <v>113.3</v>
+        <v>112.8</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I66" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="67">
@@ -2634,29 +2634,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>1990-91</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="D67" t="n">
-        <v>52.6</v>
+        <v>54.7</v>
       </c>
       <c r="E67" t="n">
-        <v>57.9</v>
+        <v>60.5</v>
       </c>
       <c r="F67" t="n">
-        <v>108</v>
+        <v>112.3</v>
       </c>
       <c r="G67" t="n">
-        <v>109</v>
+        <v>113.3</v>
       </c>
       <c r="H67" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="68">
@@ -2667,29 +2667,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>1991-92</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>32.6</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>51.5</v>
+        <v>52.6</v>
       </c>
       <c r="E68" t="n">
-        <v>56.4</v>
+        <v>57.9</v>
       </c>
       <c r="F68" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G68" t="n">
-        <v>105.2</v>
+        <v>109</v>
       </c>
       <c r="H68" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="69">
@@ -2700,29 +2700,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1995-96</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30.4</v>
+        <v>32.6</v>
       </c>
       <c r="D69" t="n">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="E69" t="n">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
       <c r="F69" t="n">
+        <v>105</v>
+      </c>
+      <c r="G69" t="n">
         <v>105.2</v>
       </c>
-      <c r="G69" t="n">
-        <v>107.4</v>
-      </c>
       <c r="H69" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="70">
@@ -2733,125 +2733,125 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1996-97</t>
+          <t>1995-96</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="D70" t="n">
-        <v>51.6</v>
+        <v>52.5</v>
       </c>
       <c r="E70" t="n">
-        <v>56.7</v>
+        <v>58.2</v>
       </c>
       <c r="F70" t="n">
-        <v>104.6</v>
+        <v>105.2</v>
       </c>
       <c r="G70" t="n">
-        <v>105.7</v>
+        <v>107.4</v>
       </c>
       <c r="H70" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Moses Malone</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>1996-97</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>31.1</v>
+        <v>29.6</v>
       </c>
       <c r="D71" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="E71" t="n">
-        <v>57.6</v>
+        <v>56.7</v>
       </c>
       <c r="F71" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="G71" t="n">
-        <v>106.9</v>
+        <v>105.7</v>
       </c>
       <c r="H71" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I71" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
+          <t>Moses Malone</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-25</t>
+          <t>1981-82</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="D72" t="n">
-        <v>62.5</v>
+        <v>51.9</v>
       </c>
       <c r="E72" t="n">
-        <v>66.3</v>
+        <v>57.6</v>
       </c>
       <c r="F72" t="n">
-        <v>115.2</v>
+        <v>104.8</v>
       </c>
       <c r="G72" t="n">
-        <v>115</v>
+        <v>106.9</v>
       </c>
       <c r="H72" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="I72" t="n">
-        <v>8.699999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Oscar Robertson</t>
+          <t>Nikola Jokić</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1960-61</t>
+          <t>2024-25</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30.5</v>
+        <v>29.8</v>
       </c>
       <c r="D73" t="n">
-        <v>47.2</v>
+        <v>62.5</v>
       </c>
       <c r="E73" t="n">
-        <v>55.5</v>
+        <v>66.2</v>
       </c>
       <c r="F73" t="n">
-        <v>113.9</v>
+        <v>115.1</v>
       </c>
       <c r="G73" t="n">
-        <v>118.4</v>
+        <v>114.9</v>
       </c>
       <c r="H73" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I73" t="n">
         <v>8.6</v>
@@ -2865,29 +2865,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1961-62</t>
+          <t>1960-61</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D74" t="n">
-        <v>47.8</v>
+        <v>47.2</v>
       </c>
       <c r="E74" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F74" t="n">
-        <v>112.3</v>
+        <v>113.9</v>
       </c>
       <c r="G74" t="n">
-        <v>115.7</v>
+        <v>118.4</v>
       </c>
       <c r="H74" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I74" t="n">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="75">
@@ -2898,29 +2898,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1963-64</t>
+          <t>1961-62</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="D75" t="n">
-        <v>48.3</v>
+        <v>47.8</v>
       </c>
       <c r="E75" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="F75" t="n">
-        <v>111.5</v>
+        <v>112.3</v>
       </c>
       <c r="G75" t="n">
-        <v>118.8</v>
+        <v>115.7</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I75" t="n">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="76">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1964-65</t>
+          <t>1963-64</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="D76" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="E76" t="n">
-        <v>56.1</v>
+        <v>57.6</v>
       </c>
       <c r="F76" t="n">
-        <v>112.7</v>
+        <v>111.5</v>
       </c>
       <c r="G76" t="n">
-        <v>117.2</v>
+        <v>118.8</v>
       </c>
       <c r="H76" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="77">
@@ -2964,29 +2964,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1965-66</t>
+          <t>1964-65</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="D77" t="n">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="E77" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="F77" t="n">
-        <v>109.6</v>
+        <v>112.7</v>
       </c>
       <c r="G77" t="n">
-        <v>115.7</v>
+        <v>117.2</v>
       </c>
       <c r="H77" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="I77" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -2997,128 +2997,128 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1966-67</t>
+          <t>1965-66</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="D78" t="n">
-        <v>49.3</v>
+        <v>47.5</v>
       </c>
       <c r="E78" t="n">
-        <v>58.3</v>
+        <v>56.3</v>
       </c>
       <c r="F78" t="n">
-        <v>111.8</v>
+        <v>109.6</v>
       </c>
       <c r="G78" t="n">
-        <v>118.2</v>
+        <v>115.7</v>
       </c>
       <c r="H78" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Pete Maravich</t>
+          <t>Oscar Robertson</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1976-77</t>
+          <t>1966-67</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="D79" t="n">
-        <v>43.3</v>
+        <v>49.3</v>
       </c>
       <c r="E79" t="n">
-        <v>49.2</v>
+        <v>58.3</v>
       </c>
       <c r="F79" t="n">
-        <v>93.09999999999999</v>
+        <v>111.8</v>
       </c>
       <c r="G79" t="n">
-        <v>96.2</v>
+        <v>118.2</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.2</v>
+        <v>5.2</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Richie Guerin</t>
+          <t>Pete Maravich</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1961-62</t>
+          <t>1976-77</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>29.5</v>
+        <v>31.1</v>
       </c>
       <c r="D80" t="n">
-        <v>44.2</v>
+        <v>43.3</v>
       </c>
       <c r="E80" t="n">
-        <v>51.6</v>
+        <v>49.2</v>
       </c>
       <c r="F80" t="n">
-        <v>103.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>107.7</v>
+        <v>96.2</v>
       </c>
       <c r="H80" t="n">
-        <v>1.6</v>
+        <v>-3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>3.7</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Rick Barry</t>
+          <t>Richie Guerin</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1966-67</t>
+          <t>1961-62</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35.6</v>
+        <v>29.5</v>
       </c>
       <c r="D81" t="n">
-        <v>45.1</v>
+        <v>44.2</v>
       </c>
       <c r="E81" t="n">
-        <v>53.1</v>
+        <v>51.6</v>
       </c>
       <c r="F81" t="n">
-        <v>102.3</v>
+        <v>103.8</v>
       </c>
       <c r="G81" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I81" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="82">
@@ -3129,95 +3129,95 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1974-75</t>
+          <t>1966-67</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30.6</v>
+        <v>35.6</v>
       </c>
       <c r="D82" t="n">
-        <v>46.4</v>
+        <v>45.1</v>
       </c>
       <c r="E82" t="n">
-        <v>50.9</v>
+        <v>53.1</v>
       </c>
       <c r="F82" t="n">
-        <v>101.5</v>
+        <v>102.3</v>
       </c>
       <c r="G82" t="n">
-        <v>101.3</v>
+        <v>107.6</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Rick Barry</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>1974-75</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>31.6</v>
+        <v>30.6</v>
       </c>
       <c r="D83" t="n">
-        <v>47.6</v>
+        <v>46.4</v>
       </c>
       <c r="E83" t="n">
-        <v>55.4</v>
+        <v>50.9</v>
       </c>
       <c r="F83" t="n">
-        <v>92.59999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="G83" t="n">
-        <v>100.3</v>
+        <v>101.3</v>
       </c>
       <c r="H83" t="n">
-        <v>-3.8</v>
+        <v>0.7</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="D84" t="n">
-        <v>53.1</v>
+        <v>47.6</v>
       </c>
       <c r="E84" t="n">
-        <v>62.6</v>
+        <v>55.4</v>
       </c>
       <c r="F84" t="n">
-        <v>97.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>107.7</v>
+        <v>100.3</v>
       </c>
       <c r="H84" t="n">
-        <v>-1.4</v>
+        <v>-3.8</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85">
@@ -3228,29 +3228,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30.1</v>
+        <v>31.4</v>
       </c>
       <c r="D85" t="n">
-        <v>56.7</v>
+        <v>53.1</v>
       </c>
       <c r="E85" t="n">
-        <v>63.6</v>
+        <v>62.6</v>
       </c>
       <c r="F85" t="n">
-        <v>103.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>109.6</v>
+        <v>107.7</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>-1.4</v>
       </c>
       <c r="I85" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="86">
@@ -3261,95 +3261,95 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-25</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.7</v>
+        <v>30.1</v>
       </c>
       <c r="D86" t="n">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
       <c r="E86" t="n">
-        <v>63.7</v>
+        <v>63.6</v>
       </c>
       <c r="F86" t="n">
-        <v>104.7</v>
+        <v>103.7</v>
       </c>
       <c r="G86" t="n">
-        <v>110.6</v>
+        <v>109.6</v>
       </c>
       <c r="H86" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1999-00</t>
+          <t>2024-25</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29.7</v>
+        <v>32.7</v>
       </c>
       <c r="D87" t="n">
-        <v>57.4</v>
+        <v>56.9</v>
       </c>
       <c r="E87" t="n">
-        <v>57.8</v>
+        <v>63.7</v>
       </c>
       <c r="F87" t="n">
-        <v>120.1</v>
+        <v>104.7</v>
       </c>
       <c r="G87" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="H87" t="n">
-        <v>9.6</v>
+        <v>2.6</v>
       </c>
       <c r="I87" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Shaquille O'Neal</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>1999-00</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="D88" t="n">
-        <v>63</v>
+        <v>57.4</v>
       </c>
       <c r="E88" t="n">
-        <v>66.90000000000001</v>
+        <v>57.8</v>
       </c>
       <c r="F88" t="n">
-        <v>125.4</v>
+        <v>120.1</v>
       </c>
       <c r="G88" t="n">
-        <v>123.7</v>
+        <v>110.5</v>
       </c>
       <c r="H88" t="n">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
       <c r="I88" t="n">
-        <v>12.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89">
@@ -3360,194 +3360,194 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>32</v>
+        <v>30.1</v>
       </c>
       <c r="D89" t="n">
-        <v>60.5</v>
+        <v>63</v>
       </c>
       <c r="E89" t="n">
-        <v>65.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>112.5</v>
+        <v>125.4</v>
       </c>
       <c r="G89" t="n">
-        <v>114.5</v>
+        <v>123.7</v>
       </c>
       <c r="H89" t="n">
-        <v>6.7</v>
+        <v>12.8</v>
       </c>
       <c r="I89" t="n">
-        <v>8.300000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tiny Archibald</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1972-73</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
-        <v>48.8</v>
+        <v>60.5</v>
       </c>
       <c r="E90" t="n">
-        <v>55.5</v>
+        <v>65.5</v>
       </c>
       <c r="F90" t="n">
-        <v>107</v>
+        <v>112.5</v>
       </c>
       <c r="G90" t="n">
-        <v>111.4</v>
+        <v>114.5</v>
       </c>
       <c r="H90" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="I90" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tracy McGrady</t>
+          <t>Tiny Archibald</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>1972-73</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32.1</v>
+        <v>34</v>
       </c>
       <c r="D91" t="n">
-        <v>50.5</v>
+        <v>48.8</v>
       </c>
       <c r="E91" t="n">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="F91" t="n">
-        <v>106.5</v>
+        <v>107</v>
       </c>
       <c r="G91" t="n">
-        <v>108.7</v>
+        <v>111.4</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Tracy McGrady</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>29.6</v>
+        <v>32.1</v>
       </c>
       <c r="D92" t="n">
-        <v>51.9</v>
+        <v>50.5</v>
       </c>
       <c r="E92" t="n">
-        <v>59.5</v>
+        <v>56.4</v>
       </c>
       <c r="F92" t="n">
-        <v>98.2</v>
+        <v>106.5</v>
       </c>
       <c r="G92" t="n">
-        <v>105.3</v>
+        <v>108.7</v>
       </c>
       <c r="H92" t="n">
-        <v>-1</v>
+        <v>3.1</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Walt Bellamy</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1961-62</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>31.6</v>
+        <v>29.6</v>
       </c>
       <c r="D93" t="n">
         <v>51.9</v>
       </c>
       <c r="E93" t="n">
-        <v>55.4</v>
+        <v>59.5</v>
       </c>
       <c r="F93" t="n">
-        <v>121.8</v>
+        <v>98.2</v>
       </c>
       <c r="G93" t="n">
-        <v>115.7</v>
+        <v>105.3</v>
       </c>
       <c r="H93" t="n">
-        <v>9.300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="I93" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wilt Chamberlain</t>
+          <t>Walt Bellamy</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1959-60</t>
+          <t>1961-62</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>37.6</v>
+        <v>31.6</v>
       </c>
       <c r="D94" t="n">
-        <v>46.1</v>
+        <v>51.9</v>
       </c>
       <c r="E94" t="n">
-        <v>49.3</v>
+        <v>55.4</v>
       </c>
       <c r="F94" t="n">
-        <v>112.4</v>
+        <v>121.8</v>
       </c>
       <c r="G94" t="n">
-        <v>106.4</v>
+        <v>115.7</v>
       </c>
       <c r="H94" t="n">
-        <v>5.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="95">
@@ -3558,29 +3558,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1960-61</t>
+          <t>1959-60</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>38.4</v>
+        <v>37.6</v>
       </c>
       <c r="D95" t="n">
-        <v>50.9</v>
+        <v>46.1</v>
       </c>
       <c r="E95" t="n">
-        <v>51.9</v>
+        <v>49.3</v>
       </c>
       <c r="F95" t="n">
-        <v>122.7</v>
+        <v>112.4</v>
       </c>
       <c r="G95" t="n">
-        <v>110.7</v>
+        <v>106.4</v>
       </c>
       <c r="H95" t="n">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -3591,29 +3591,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1961-62</t>
+          <t>1960-61</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>50.4</v>
+        <v>38.4</v>
       </c>
       <c r="D96" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="E96" t="n">
-        <v>53.6</v>
+        <v>51.9</v>
       </c>
       <c r="F96" t="n">
-        <v>118.7</v>
+        <v>122.7</v>
       </c>
       <c r="G96" t="n">
-        <v>111.9</v>
+        <v>110.7</v>
       </c>
       <c r="H96" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="I96" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -3624,26 +3624,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1962-63</t>
+          <t>1961-62</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>44.8</v>
+        <v>50.4</v>
       </c>
       <c r="D97" t="n">
-        <v>52.8</v>
+        <v>50.6</v>
       </c>
       <c r="E97" t="n">
-        <v>55</v>
+        <v>53.6</v>
       </c>
       <c r="F97" t="n">
-        <v>119.8</v>
+        <v>118.7</v>
       </c>
       <c r="G97" t="n">
-        <v>111.6</v>
+        <v>111.9</v>
       </c>
       <c r="H97" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n">
         <v>5.7</v>
@@ -3657,29 +3657,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1963-64</t>
+          <t>1962-63</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>36.8</v>
+        <v>44.8</v>
       </c>
       <c r="D98" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="E98" t="n">
-        <v>53.7</v>
+        <v>55</v>
       </c>
       <c r="F98" t="n">
-        <v>121</v>
+        <v>119.8</v>
       </c>
       <c r="G98" t="n">
-        <v>110.7</v>
+        <v>111.6</v>
       </c>
       <c r="H98" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="99">
@@ -3690,29 +3690,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1964-65</t>
+          <t>1963-64</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>34.7</v>
+        <v>36.8</v>
       </c>
       <c r="D99" t="n">
-        <v>51</v>
+        <v>52.4</v>
       </c>
       <c r="E99" t="n">
-        <v>51.3</v>
+        <v>53.7</v>
       </c>
       <c r="F99" t="n">
-        <v>119.8</v>
+        <v>121</v>
       </c>
       <c r="G99" t="n">
-        <v>107.1</v>
+        <v>110.7</v>
       </c>
       <c r="H99" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="100">
@@ -3723,61 +3723,94 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1965-66</t>
+          <t>1964-65</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>33.5</v>
+        <v>34.7</v>
       </c>
       <c r="D100" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E100" t="n">
-        <v>54.7</v>
+        <v>51.3</v>
       </c>
       <c r="F100" t="n">
-        <v>124.6</v>
+        <v>119.8</v>
       </c>
       <c r="G100" t="n">
-        <v>112.4</v>
+        <v>107.1</v>
       </c>
       <c r="H100" t="n">
-        <v>10.7</v>
+        <v>8.4</v>
       </c>
       <c r="I100" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>Wilt Chamberlain</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1965-66</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>54</v>
+      </c>
+      <c r="E101" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="G101" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>World B. Free</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>1979-80</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C102" t="n">
         <v>30.2</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D102" t="n">
         <v>47.7</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E102" t="n">
         <v>54.4</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F102" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G102" t="n">
         <v>102.4</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H102" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I102" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -3792,7 +3825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3982,67 +4015,67 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29.7</v>
+        <v>32.3</v>
       </c>
       <c r="D6" t="n">
-        <v>49.8</v>
+        <v>56.3</v>
       </c>
       <c r="E6" t="n">
-        <v>56.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>96.90000000000001</v>
+        <v>103.3</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9</v>
+        <v>110.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dominique Wilkins</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4</v>
+        <v>49.8</v>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>56.3</v>
       </c>
       <c r="F7" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>99.09999999999999</v>
+        <v>101.9</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -4053,161 +4086,161 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>1987-88</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="D8" t="n">
-        <v>50.7</v>
+        <v>47.4</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>103.2</v>
+        <v>97</v>
       </c>
       <c r="G8" t="n">
-        <v>106.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Dominique Wilkins</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D9" t="n">
-        <v>57.1</v>
+        <v>50.7</v>
       </c>
       <c r="E9" t="n">
-        <v>61.4</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
-        <v>104.8</v>
+        <v>103.2</v>
       </c>
       <c r="G9" t="n">
-        <v>105.7</v>
+        <v>106.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dwyane Wade</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31.4</v>
+        <v>29.7</v>
       </c>
       <c r="D10" t="n">
-        <v>51.6</v>
+        <v>57.1</v>
       </c>
       <c r="E10" t="n">
-        <v>57.4</v>
+        <v>61.4</v>
       </c>
       <c r="F10" t="n">
-        <v>103.3</v>
+        <v>104.8</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4</v>
+        <v>105.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>George Gervin</t>
+          <t>Dwyane Wade</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31.8</v>
+        <v>31.4</v>
       </c>
       <c r="D11" t="n">
-        <v>50.3</v>
+        <v>51.6</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2</v>
+        <v>57.4</v>
       </c>
       <c r="F11" t="n">
-        <v>101.6</v>
+        <v>103.3</v>
       </c>
       <c r="G11" t="n">
-        <v>104.3</v>
+        <v>105.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>George Gervin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>1981-82</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.5</v>
+        <v>31.8</v>
       </c>
       <c r="D12" t="n">
-        <v>59.8</v>
+        <v>50.3</v>
       </c>
       <c r="E12" t="n">
-        <v>64.3</v>
+        <v>56.2</v>
       </c>
       <c r="F12" t="n">
-        <v>114</v>
+        <v>101.6</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9</v>
+        <v>104.3</v>
       </c>
       <c r="H12" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
@@ -4218,29 +4251,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33.2</v>
+        <v>29.5</v>
       </c>
       <c r="D13" t="n">
-        <v>58.8</v>
+        <v>59.8</v>
       </c>
       <c r="E13" t="n">
-        <v>61.2</v>
+        <v>64.3</v>
       </c>
       <c r="F13" t="n">
-        <v>111.2</v>
+        <v>114</v>
       </c>
       <c r="G13" t="n">
-        <v>108.4</v>
+        <v>114.9</v>
       </c>
       <c r="H13" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4251,29 +4284,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30.1</v>
+        <v>33.2</v>
       </c>
       <c r="D14" t="n">
-        <v>59.9</v>
+        <v>58.8</v>
       </c>
       <c r="E14" t="n">
-        <v>63.3</v>
+        <v>61.2</v>
       </c>
       <c r="F14" t="n">
-        <v>111.4</v>
+        <v>111.2</v>
       </c>
       <c r="G14" t="n">
-        <v>110.6</v>
+        <v>108.4</v>
       </c>
       <c r="H14" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15">
@@ -4284,29 +4317,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32.7</v>
+        <v>30.1</v>
       </c>
       <c r="D15" t="n">
-        <v>58.1</v>
+        <v>59.9</v>
       </c>
       <c r="E15" t="n">
         <v>63.3</v>
       </c>
       <c r="F15" t="n">
-        <v>109.2</v>
+        <v>111.4</v>
       </c>
       <c r="G15" t="n">
-        <v>111.8</v>
+        <v>110.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="I15" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="16">
@@ -4317,29 +4350,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.7</v>
+        <v>32.7</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3</v>
+        <v>58.1</v>
       </c>
       <c r="E16" t="n">
-        <v>60.6</v>
+        <v>63.3</v>
       </c>
       <c r="F16" t="n">
-        <v>105.2</v>
+        <v>109.2</v>
       </c>
       <c r="G16" t="n">
-        <v>104.3</v>
+        <v>111.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17">
@@ -4350,29 +4383,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31.2</v>
+        <v>34.7</v>
       </c>
       <c r="D17" t="n">
-        <v>62.5</v>
+        <v>57.3</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>60.6</v>
       </c>
       <c r="F17" t="n">
-        <v>114.3</v>
+        <v>105.2</v>
       </c>
       <c r="G17" t="n">
-        <v>112</v>
+        <v>104.3</v>
       </c>
       <c r="H17" t="n">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18">
@@ -4383,128 +4416,128 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-25</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32.3</v>
+        <v>31.2</v>
       </c>
       <c r="D18" t="n">
-        <v>60.8</v>
+        <v>62.5</v>
       </c>
       <c r="E18" t="n">
-        <v>62.5</v>
+        <v>65</v>
       </c>
       <c r="F18" t="n">
-        <v>111.9</v>
+        <v>114.3</v>
       </c>
       <c r="G18" t="n">
-        <v>108.4</v>
+        <v>112</v>
       </c>
       <c r="H18" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Isaiah Thomas</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2024-25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6</v>
+        <v>60.6</v>
       </c>
       <c r="E19" t="n">
-        <v>62.5</v>
+        <v>62.4</v>
       </c>
       <c r="F19" t="n">
-        <v>106.2</v>
+        <v>111.6</v>
       </c>
       <c r="G19" t="n">
-        <v>113.3</v>
+        <v>108.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="I19" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Isaiah Thomas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="D20" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="E20" t="n">
-        <v>59.2</v>
+        <v>62.5</v>
       </c>
       <c r="F20" t="n">
-        <v>99.2</v>
+        <v>106.2</v>
       </c>
       <c r="G20" t="n">
-        <v>102.1</v>
+        <v>113.3</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31.7</v>
+        <v>30.7</v>
       </c>
       <c r="D21" t="n">
         <v>54.3</v>
       </c>
       <c r="E21" t="n">
-        <v>62.1</v>
+        <v>59.2</v>
       </c>
       <c r="F21" t="n">
-        <v>104.2</v>
+        <v>99.2</v>
       </c>
       <c r="G21" t="n">
-        <v>111.7</v>
+        <v>102.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>-0.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22">
@@ -4515,29 +4548,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36.2</v>
+        <v>31.7</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="E22" t="n">
-        <v>61.5</v>
+        <v>62.1</v>
       </c>
       <c r="F22" t="n">
-        <v>103</v>
+        <v>104.2</v>
       </c>
       <c r="G22" t="n">
-        <v>109.9</v>
+        <v>111.7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23">
@@ -4548,95 +4581,95 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32.6</v>
+        <v>36.2</v>
       </c>
       <c r="D23" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>62.6</v>
+        <v>61.5</v>
       </c>
       <c r="F23" t="n">
-        <v>102.6</v>
+        <v>103</v>
       </c>
       <c r="G23" t="n">
-        <v>110.8</v>
+        <v>109.9</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29.8</v>
+        <v>32.6</v>
       </c>
       <c r="D24" t="n">
         <v>54.3</v>
       </c>
       <c r="E24" t="n">
-        <v>60.7</v>
+        <v>62.6</v>
       </c>
       <c r="F24" t="n">
-        <v>99.7</v>
+        <v>102.6</v>
       </c>
       <c r="G24" t="n">
-        <v>104.5</v>
+        <v>110.8</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2</v>
+        <v>1.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33.8</v>
+        <v>29.8</v>
       </c>
       <c r="D25" t="n">
-        <v>53.3</v>
+        <v>54.3</v>
       </c>
       <c r="E25" t="n">
-        <v>61.5</v>
+        <v>60.7</v>
       </c>
       <c r="F25" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="G25" t="n">
-        <v>108.7</v>
+        <v>104.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -4647,62 +4680,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35.6</v>
+        <v>33.8</v>
       </c>
       <c r="D26" t="n">
-        <v>57.5</v>
+        <v>53.3</v>
       </c>
       <c r="E26" t="n">
-        <v>65.59999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="F26" t="n">
-        <v>105.4</v>
+        <v>100.1</v>
       </c>
       <c r="G26" t="n">
-        <v>112.8</v>
+        <v>108.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Karl Malone</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30.4</v>
+        <v>35.6</v>
       </c>
       <c r="D27" t="n">
-        <v>56.7</v>
+        <v>57.5</v>
       </c>
       <c r="E27" t="n">
-        <v>62.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>116</v>
+        <v>105.4</v>
       </c>
       <c r="G27" t="n">
-        <v>116.6</v>
+        <v>112.8</v>
       </c>
       <c r="H27" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28">
@@ -4713,62 +4746,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1996-97</t>
+          <t>1989-90</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>56.7</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>62.6</v>
       </c>
       <c r="F28" t="n">
-        <v>111.6</v>
+        <v>116</v>
       </c>
       <c r="G28" t="n">
-        <v>112</v>
+        <v>116.6</v>
       </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Karl Malone</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>1996-97</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>51.5</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>60.6</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>102.8</v>
+        <v>111.6</v>
       </c>
       <c r="G29" t="n">
-        <v>111.6</v>
+        <v>112</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="30">
@@ -4779,62 +4812,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2013-14</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31.4</v>
+        <v>29.6</v>
       </c>
       <c r="D30" t="n">
-        <v>56.1</v>
+        <v>51.5</v>
       </c>
       <c r="E30" t="n">
-        <v>63.5</v>
+        <v>60.6</v>
       </c>
       <c r="F30" t="n">
-        <v>111.9</v>
+        <v>102.8</v>
       </c>
       <c r="G30" t="n">
-        <v>117.4</v>
+        <v>111.6</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="I30" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kobe Bryant</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34.2</v>
+        <v>31.4</v>
       </c>
       <c r="D31" t="n">
-        <v>49.1</v>
+        <v>56.1</v>
       </c>
       <c r="E31" t="n">
-        <v>55.9</v>
+        <v>63.5</v>
       </c>
       <c r="F31" t="n">
-        <v>100.3</v>
+        <v>111.9</v>
       </c>
       <c r="G31" t="n">
-        <v>104.2</v>
+        <v>117.4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="32">
@@ -4845,29 +4878,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29.8</v>
+        <v>34.2</v>
       </c>
       <c r="D32" t="n">
-        <v>50.2</v>
+        <v>49.1</v>
       </c>
       <c r="E32" t="n">
-        <v>58</v>
+        <v>55.9</v>
       </c>
       <c r="F32" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="G32" t="n">
-        <v>107.1</v>
+        <v>104.2</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="33">
@@ -4878,62 +4911,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D33" t="n">
-        <v>48.7</v>
+        <v>50.2</v>
       </c>
       <c r="E33" t="n">
-        <v>54.9</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>97.8</v>
+        <v>101.2</v>
       </c>
       <c r="G33" t="n">
-        <v>101.4</v>
+        <v>107.1</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.1</v>
+        <v>0.6</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Kobe Bryant</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D34" t="n">
-        <v>51.4</v>
+        <v>48.7</v>
       </c>
       <c r="E34" t="n">
-        <v>56.8</v>
+        <v>54.9</v>
       </c>
       <c r="F34" t="n">
-        <v>104.9</v>
+        <v>97.8</v>
       </c>
       <c r="G34" t="n">
-        <v>106</v>
+        <v>101.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.4</v>
+        <v>-1.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35">
@@ -4944,29 +4977,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D35" t="n">
-        <v>51.7</v>
+        <v>51.4</v>
       </c>
       <c r="E35" t="n">
         <v>56.8</v>
       </c>
       <c r="F35" t="n">
-        <v>104.1</v>
+        <v>104.9</v>
       </c>
       <c r="G35" t="n">
-        <v>105.1</v>
+        <v>106</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="36">
@@ -4977,29 +5010,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="D36" t="n">
-        <v>53</v>
+        <v>51.7</v>
       </c>
       <c r="E36" t="n">
-        <v>59.1</v>
+        <v>56.8</v>
       </c>
       <c r="F36" t="n">
-        <v>105.9</v>
+        <v>104.1</v>
       </c>
       <c r="G36" t="n">
-        <v>108.6</v>
+        <v>105.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="37">
@@ -5010,62 +5043,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="D37" t="n">
-        <v>54.4</v>
+        <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>60.4</v>
+        <v>59.1</v>
       </c>
       <c r="F37" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="G37" t="n">
         <v>108.6</v>
       </c>
-      <c r="G37" t="n">
-        <v>111.2</v>
-      </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>53</v>
+        <v>54.4</v>
       </c>
       <c r="E38" t="n">
-        <v>58.5</v>
+        <v>60.4</v>
       </c>
       <c r="F38" t="n">
-        <v>100.3</v>
+        <v>108.6</v>
       </c>
       <c r="G38" t="n">
-        <v>103.6</v>
+        <v>111.2</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="39">
@@ -5076,29 +5109,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="D39" t="n">
-        <v>54.9</v>
+        <v>53</v>
       </c>
       <c r="E39" t="n">
-        <v>58.6</v>
+        <v>58.5</v>
       </c>
       <c r="F39" t="n">
-        <v>102.1</v>
+        <v>100.3</v>
       </c>
       <c r="G39" t="n">
-        <v>102.5</v>
+        <v>103.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -5109,29 +5142,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="D40" t="n">
-        <v>52.8</v>
+        <v>54.9</v>
       </c>
       <c r="E40" t="n">
-        <v>57</v>
+        <v>58.6</v>
       </c>
       <c r="F40" t="n">
-        <v>99.2</v>
+        <v>102.1</v>
       </c>
       <c r="G40" t="n">
-        <v>100.8</v>
+        <v>102.5</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.4</v>
+        <v>1.1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41">
@@ -5142,29 +5175,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33.3</v>
+        <v>30.3</v>
       </c>
       <c r="D41" t="n">
-        <v>56</v>
+        <v>52.8</v>
       </c>
       <c r="E41" t="n">
-        <v>60.9</v>
+        <v>57</v>
       </c>
       <c r="F41" t="n">
-        <v>102.7</v>
+        <v>99.2</v>
       </c>
       <c r="G41" t="n">
-        <v>104.9</v>
+        <v>100.8</v>
       </c>
       <c r="H41" t="n">
-        <v>1.5</v>
+        <v>-0.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42">
@@ -5175,62 +5208,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32.5</v>
+        <v>33.3</v>
       </c>
       <c r="D42" t="n">
-        <v>57.3</v>
+        <v>56</v>
       </c>
       <c r="E42" t="n">
-        <v>61.7</v>
+        <v>60.9</v>
       </c>
       <c r="F42" t="n">
-        <v>104.7</v>
+        <v>102.7</v>
       </c>
       <c r="G42" t="n">
-        <v>106.4</v>
+        <v>104.9</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34.8</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>48.4</v>
+        <v>57.3</v>
       </c>
       <c r="E43" t="n">
-        <v>56.2</v>
+        <v>61.7</v>
       </c>
       <c r="F43" t="n">
-        <v>99.2</v>
+        <v>104.7</v>
       </c>
       <c r="G43" t="n">
-        <v>104.4</v>
+        <v>106.4</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.4</v>
+        <v>2.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="44">
@@ -5241,29 +5274,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>1986-87</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32.7</v>
+        <v>34.8</v>
       </c>
       <c r="D44" t="n">
-        <v>53.8</v>
+        <v>48.4</v>
       </c>
       <c r="E44" t="n">
-        <v>60.4</v>
+        <v>56.2</v>
       </c>
       <c r="F44" t="n">
-        <v>110</v>
+        <v>99.2</v>
       </c>
       <c r="G44" t="n">
-        <v>112.4</v>
+        <v>104.4</v>
       </c>
       <c r="H44" t="n">
-        <v>4.9</v>
+        <v>-0.4</v>
       </c>
       <c r="I44" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="45">
@@ -5274,29 +5307,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>1987-88</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>32.7</v>
       </c>
       <c r="D45" t="n">
-        <v>54.6</v>
+        <v>53.8</v>
       </c>
       <c r="E45" t="n">
-        <v>61.3</v>
+        <v>60.4</v>
       </c>
       <c r="F45" t="n">
-        <v>111.6</v>
+        <v>110</v>
       </c>
       <c r="G45" t="n">
-        <v>114.2</v>
+        <v>112.4</v>
       </c>
       <c r="H45" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="I45" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="46">
@@ -5307,29 +5340,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>1988-89</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>54.9</v>
+        <v>54.6</v>
       </c>
       <c r="E46" t="n">
-        <v>60.6</v>
+        <v>61.3</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3</v>
+        <v>111.6</v>
       </c>
       <c r="G46" t="n">
-        <v>112.8</v>
+        <v>114.2</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="47">
@@ -5340,29 +5373,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1990-91</t>
+          <t>1989-90</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E47" t="n">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="F47" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="G47" t="n">
-        <v>113.3</v>
+        <v>112.8</v>
       </c>
       <c r="H47" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="48">
@@ -5373,29 +5406,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>1990-91</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29.6</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
-        <v>52.7</v>
+        <v>54.8</v>
       </c>
       <c r="E48" t="n">
-        <v>57.8</v>
+        <v>60.5</v>
       </c>
       <c r="F48" t="n">
-        <v>108.2</v>
+        <v>112.5</v>
       </c>
       <c r="G48" t="n">
-        <v>108.9</v>
+        <v>113.3</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="49">
@@ -5406,29 +5439,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>1991-92</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>32.2</v>
+        <v>29.6</v>
       </c>
       <c r="D49" t="n">
-        <v>51.5</v>
+        <v>52.7</v>
       </c>
       <c r="E49" t="n">
-        <v>56.4</v>
+        <v>57.8</v>
       </c>
       <c r="F49" t="n">
-        <v>104.8</v>
+        <v>108.2</v>
       </c>
       <c r="G49" t="n">
-        <v>105.2</v>
+        <v>108.9</v>
       </c>
       <c r="H49" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="50">
@@ -5439,29 +5472,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1995-96</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="D50" t="n">
-        <v>52.7</v>
+        <v>51.5</v>
       </c>
       <c r="E50" t="n">
-        <v>58.3</v>
+        <v>56.4</v>
       </c>
       <c r="F50" t="n">
-        <v>105.6</v>
+        <v>104.8</v>
       </c>
       <c r="G50" t="n">
-        <v>107.6</v>
+        <v>105.2</v>
       </c>
       <c r="H50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I50" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="51">
@@ -5472,29 +5505,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1996-97</t>
+          <t>1995-96</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="D51" t="n">
-        <v>51.7</v>
+        <v>52.7</v>
       </c>
       <c r="E51" t="n">
-        <v>56.7</v>
+        <v>58.3</v>
       </c>
       <c r="F51" t="n">
-        <v>104.9</v>
+        <v>105.6</v>
       </c>
       <c r="G51" t="n">
-        <v>105.8</v>
+        <v>107.6</v>
       </c>
       <c r="H51" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="52">
@@ -5505,95 +5538,95 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>1996-97</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>31.4</v>
       </c>
       <c r="D52" t="n">
-        <v>47.4</v>
+        <v>51.7</v>
       </c>
       <c r="E52" t="n">
-        <v>53.4</v>
+        <v>56.7</v>
       </c>
       <c r="F52" t="n">
-        <v>99.09999999999999</v>
+        <v>104.9</v>
       </c>
       <c r="G52" t="n">
-        <v>101.9</v>
+        <v>105.8</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.4</v>
+        <v>2.4</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>1997-98</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>61.9</v>
+        <v>47.4</v>
       </c>
       <c r="E53" t="n">
-        <v>66</v>
+        <v>53.4</v>
       </c>
       <c r="F53" t="n">
-        <v>116.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>116.5</v>
+        <v>101.9</v>
       </c>
       <c r="H53" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="I53" t="n">
-        <v>9.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Nikola Jokić</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="D54" t="n">
-        <v>45.6</v>
+        <v>61.9</v>
       </c>
       <c r="E54" t="n">
-        <v>53.7</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
-        <v>92</v>
+        <v>116.4</v>
       </c>
       <c r="G54" t="n">
-        <v>100.6</v>
+        <v>116.5</v>
       </c>
       <c r="H54" t="n">
-        <v>-4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="55">
@@ -5604,62 +5637,62 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33.6</v>
+        <v>30.8</v>
       </c>
       <c r="D55" t="n">
-        <v>47.6</v>
+        <v>45.6</v>
       </c>
       <c r="E55" t="n">
-        <v>55.4</v>
+        <v>53.7</v>
       </c>
       <c r="F55" t="n">
-        <v>92.7</v>
+        <v>92</v>
       </c>
       <c r="G55" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31.5</v>
+        <v>33.6</v>
       </c>
       <c r="D56" t="n">
-        <v>52.9</v>
+        <v>47.6</v>
       </c>
       <c r="E56" t="n">
-        <v>62.5</v>
+        <v>55.4</v>
       </c>
       <c r="F56" t="n">
-        <v>97.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="G56" t="n">
-        <v>107.6</v>
+        <v>100.3</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.6</v>
+        <v>-3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
@@ -5670,29 +5703,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="D57" t="n">
-        <v>56.6</v>
+        <v>52.9</v>
       </c>
       <c r="E57" t="n">
-        <v>63.5</v>
+        <v>62.5</v>
       </c>
       <c r="F57" t="n">
-        <v>103.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>109.5</v>
+        <v>107.6</v>
       </c>
       <c r="H57" t="n">
-        <v>1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="58">
@@ -5703,62 +5736,62 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-25</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34.4</v>
+        <v>31.8</v>
       </c>
       <c r="D58" t="n">
-        <v>56.9</v>
+        <v>56.6</v>
       </c>
       <c r="E58" t="n">
-        <v>63.7</v>
+        <v>63.5</v>
       </c>
       <c r="F58" t="n">
-        <v>104.7</v>
+        <v>103.5</v>
       </c>
       <c r="G58" t="n">
-        <v>110.5</v>
+        <v>109.5</v>
       </c>
       <c r="H58" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="I58" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1994-95</t>
+          <t>2024-25</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>34.4</v>
       </c>
       <c r="D59" t="n">
-        <v>58.4</v>
+        <v>56.9</v>
       </c>
       <c r="E59" t="n">
-        <v>58.9</v>
+        <v>63.7</v>
       </c>
       <c r="F59" t="n">
-        <v>116.7</v>
+        <v>104.7</v>
       </c>
       <c r="G59" t="n">
-        <v>108.4</v>
+        <v>110.5</v>
       </c>
       <c r="H59" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="60">
@@ -5769,62 +5802,62 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>1994-95</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="E60" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="F60" t="n">
-        <v>122</v>
+        <v>116.7</v>
       </c>
       <c r="G60" t="n">
-        <v>111.9</v>
+        <v>108.4</v>
       </c>
       <c r="H60" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="I60" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Shaquille O'Neal</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>1997-98</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>31.9</v>
+        <v>30.1</v>
       </c>
       <c r="D61" t="n">
-        <v>62.9</v>
+        <v>58.3</v>
       </c>
       <c r="E61" t="n">
-        <v>66.90000000000001</v>
+        <v>58.7</v>
       </c>
       <c r="F61" t="n">
-        <v>125.4</v>
+        <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>123.6</v>
+        <v>111.9</v>
       </c>
       <c r="H61" t="n">
-        <v>12.7</v>
+        <v>10.5</v>
       </c>
       <c r="I61" t="n">
-        <v>12.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="62">
@@ -5835,94 +5868,127 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>33</v>
+        <v>31.9</v>
       </c>
       <c r="D62" t="n">
-        <v>60.6</v>
+        <v>62.9</v>
       </c>
       <c r="E62" t="n">
-        <v>65.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>112.6</v>
+        <v>125.4</v>
       </c>
       <c r="G62" t="n">
-        <v>114.5</v>
+        <v>123.6</v>
       </c>
       <c r="H62" t="n">
-        <v>6.8</v>
+        <v>12.7</v>
       </c>
       <c r="I62" t="n">
-        <v>8.300000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tracy McGrady</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
-        <v>50.5</v>
+        <v>60.6</v>
       </c>
       <c r="E63" t="n">
-        <v>56.5</v>
+        <v>65.5</v>
       </c>
       <c r="F63" t="n">
-        <v>106.5</v>
+        <v>112.6</v>
       </c>
       <c r="G63" t="n">
-        <v>108.8</v>
+        <v>114.5</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Tracy McGrady</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>Trae Young</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C65" t="n">
         <v>29.9</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D65" t="n">
         <v>53.5</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E65" t="n">
         <v>60.3</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F65" t="n">
         <v>100.6</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G65" t="n">
         <v>106.5</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H65" t="n">
         <v>0.3</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I65" t="n">
         <v>3.7</v>
       </c>
     </row>
